--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +525,929 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H2">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I2">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J2">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.66850863095285</v>
+        <v>0.06908633333333333</v>
       </c>
       <c r="N2">
-        <v>1.66850863095285</v>
+        <v>0.207259</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0390261528832343</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.0390261528832343</v>
       </c>
       <c r="Q2">
-        <v>3.658214195767149</v>
+        <v>0.1543991119493333</v>
       </c>
       <c r="R2">
-        <v>3.658214195767149</v>
+        <v>1.389592007544</v>
       </c>
       <c r="S2">
-        <v>0.2818102791681873</v>
+        <v>0.009831404511568779</v>
       </c>
       <c r="T2">
-        <v>0.2818102791681873</v>
+        <v>0.009831404511568781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.14812814499138</v>
+        <v>2.234872</v>
       </c>
       <c r="H3">
-        <v>3.14812814499138</v>
+        <v>6.704616</v>
       </c>
       <c r="I3">
-        <v>0.4046397643428244</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J3">
-        <v>0.4046397643428244</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.66850863095285</v>
+        <v>1.697343333333333</v>
       </c>
       <c r="N3">
-        <v>1.66850863095285</v>
+        <v>5.09203</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9588116379313592</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9588116379313592</v>
       </c>
       <c r="Q3">
-        <v>5.252678981263703</v>
+        <v>3.793345090053333</v>
       </c>
       <c r="R3">
-        <v>5.252678981263703</v>
+        <v>34.14010581048</v>
       </c>
       <c r="S3">
-        <v>0.4046397643428244</v>
+        <v>0.2415422573448852</v>
       </c>
       <c r="T3">
-        <v>0.4046397643428244</v>
+        <v>0.2415422573448853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.234872</v>
+      </c>
+      <c r="H4">
+        <v>6.704616</v>
+      </c>
+      <c r="I4">
+        <v>0.2519183620528573</v>
+      </c>
+      <c r="J4">
+        <v>0.2519183620528573</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.003827666666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.011483</v>
+      </c>
+      <c r="O4">
+        <v>0.002162209185406566</v>
+      </c>
+      <c r="P4">
+        <v>0.002162209185406566</v>
+      </c>
+      <c r="Q4">
+        <v>0.008554345058666667</v>
+      </c>
+      <c r="R4">
+        <v>0.07698910552799999</v>
+      </c>
+      <c r="S4">
+        <v>0.0005447001964032649</v>
+      </c>
+      <c r="T4">
+        <v>0.000544700196403265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.185577</v>
+      </c>
+      <c r="H5">
+        <v>9.556730999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.3590833569140671</v>
+      </c>
+      <c r="J5">
+        <v>0.3590833569140671</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.06908633333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.207259</v>
+      </c>
+      <c r="O5">
+        <v>0.0390261528832343</v>
+      </c>
+      <c r="P5">
+        <v>0.0390261528832343</v>
+      </c>
+      <c r="Q5">
+        <v>0.220079834481</v>
+      </c>
+      <c r="R5">
+        <v>1.980718510329</v>
+      </c>
+      <c r="S5">
+        <v>0.01401364198475337</v>
+      </c>
+      <c r="T5">
+        <v>0.01401364198475337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.185577</v>
+      </c>
+      <c r="H6">
+        <v>9.556730999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.3590833569140671</v>
+      </c>
+      <c r="J6">
+        <v>0.3590833569140671</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.697343333333333</v>
+      </c>
+      <c r="N6">
+        <v>5.09203</v>
+      </c>
+      <c r="O6">
+        <v>0.9588116379313592</v>
+      </c>
+      <c r="P6">
+        <v>0.9588116379313592</v>
+      </c>
+      <c r="Q6">
+        <v>5.40701788377</v>
+      </c>
+      <c r="R6">
+        <v>48.66316095393</v>
+      </c>
+      <c r="S6">
+        <v>0.3442933015966675</v>
+      </c>
+      <c r="T6">
+        <v>0.3442933015966675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.185577</v>
+      </c>
+      <c r="H7">
+        <v>9.556730999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.3590833569140671</v>
+      </c>
+      <c r="J7">
+        <v>0.3590833569140671</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.003827666666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.011483</v>
+      </c>
+      <c r="O7">
+        <v>0.002162209185406566</v>
+      </c>
+      <c r="P7">
+        <v>0.002162209185406566</v>
+      </c>
+      <c r="Q7">
+        <v>0.012193326897</v>
+      </c>
+      <c r="R7">
+        <v>0.109739942073</v>
+      </c>
+      <c r="S7">
+        <v>0.0007764133326462202</v>
+      </c>
+      <c r="T7">
+        <v>0.0007764133326462202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3858173333333334</v>
+      </c>
+      <c r="H8">
+        <v>1.157452</v>
+      </c>
+      <c r="I8">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="J8">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.06908633333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.207259</v>
+      </c>
+      <c r="O8">
+        <v>0.0390261528832343</v>
+      </c>
+      <c r="P8">
+        <v>0.0390261528832343</v>
+      </c>
+      <c r="Q8">
+        <v>0.02665470489644445</v>
+      </c>
+      <c r="R8">
+        <v>0.239892344068</v>
+      </c>
+      <c r="S8">
+        <v>0.001697245422366368</v>
+      </c>
+      <c r="T8">
+        <v>0.001697245422366368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3858173333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.157452</v>
+      </c>
+      <c r="I9">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="J9">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.697343333333333</v>
+      </c>
+      <c r="N9">
+        <v>5.09203</v>
+      </c>
+      <c r="O9">
+        <v>0.9588116379313592</v>
+      </c>
+      <c r="P9">
+        <v>0.9588116379313592</v>
+      </c>
+      <c r="Q9">
+        <v>0.654864478617778</v>
+      </c>
+      <c r="R9">
+        <v>5.893780307560001</v>
+      </c>
+      <c r="S9">
+        <v>0.04169866981917417</v>
+      </c>
+      <c r="T9">
+        <v>0.04169866981917417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3858173333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.157452</v>
+      </c>
+      <c r="I10">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="J10">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.003827666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.011483</v>
+      </c>
+      <c r="O10">
+        <v>0.002162209185406566</v>
+      </c>
+      <c r="P10">
+        <v>0.002162209185406566</v>
+      </c>
+      <c r="Q10">
+        <v>0.001476780146222223</v>
+      </c>
+      <c r="R10">
+        <v>0.013291021316</v>
+      </c>
+      <c r="S10">
+        <v>9.403436851974102E-05</v>
+      </c>
+      <c r="T10">
+        <v>9.403436851974102E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.894691</v>
+      </c>
+      <c r="I11">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J11">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.06908633333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.207259</v>
+      </c>
+      <c r="O11">
+        <v>0.0390261528832343</v>
+      </c>
+      <c r="P11">
+        <v>0.0390261528832343</v>
+      </c>
+      <c r="Q11">
+        <v>0.02060364021877778</v>
+      </c>
+      <c r="R11">
+        <v>0.185432761969</v>
+      </c>
+      <c r="S11">
+        <v>0.001311942269901808</v>
+      </c>
+      <c r="T11">
+        <v>0.001311942269901809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.894691</v>
+      </c>
+      <c r="I12">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J12">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.697343333333333</v>
+      </c>
+      <c r="N12">
+        <v>5.09203</v>
+      </c>
+      <c r="O12">
+        <v>0.9588116379313592</v>
+      </c>
+      <c r="P12">
+        <v>0.9588116379313592</v>
+      </c>
+      <c r="Q12">
+        <v>0.5061992680811112</v>
+      </c>
+      <c r="R12">
+        <v>4.55579341273</v>
+      </c>
+      <c r="S12">
+        <v>0.03223237300483021</v>
+      </c>
+      <c r="T12">
+        <v>0.03223237300483022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.894691</v>
+      </c>
+      <c r="I13">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J13">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.003827666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.011483</v>
+      </c>
+      <c r="O13">
+        <v>0.002162209185406566</v>
+      </c>
+      <c r="P13">
+        <v>0.002162209185406566</v>
+      </c>
+      <c r="Q13">
+        <v>0.001141526305888889</v>
+      </c>
+      <c r="R13">
+        <v>0.010273736753</v>
+      </c>
+      <c r="S13">
+        <v>7.268699108498287E-05</v>
+      </c>
+      <c r="T13">
+        <v>7.268699108498288E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.766917</v>
+      </c>
+      <c r="H14">
+        <v>8.300751</v>
+      </c>
+      <c r="I14">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J14">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.06908633333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.207259</v>
+      </c>
+      <c r="O14">
+        <v>0.0390261528832343</v>
+      </c>
+      <c r="P14">
+        <v>0.0390261528832343</v>
+      </c>
+      <c r="Q14">
+        <v>0.1911561501676667</v>
+      </c>
+      <c r="R14">
+        <v>1.720405351509</v>
+      </c>
+      <c r="S14">
+        <v>0.01217191869464397</v>
+      </c>
+      <c r="T14">
+        <v>0.01217191869464397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.43944251125924</v>
-      </c>
-      <c r="H4">
-        <v>2.43944251125924</v>
-      </c>
-      <c r="I4">
-        <v>0.3135499564889883</v>
-      </c>
-      <c r="J4">
-        <v>0.3135499564889883</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.66850863095285</v>
-      </c>
-      <c r="N4">
-        <v>1.66850863095285</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>4.070230884749337</v>
-      </c>
-      <c r="R4">
-        <v>4.070230884749337</v>
-      </c>
-      <c r="S4">
-        <v>0.3135499564889883</v>
-      </c>
-      <c r="T4">
-        <v>0.3135499564889883</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.766917</v>
+      </c>
+      <c r="H15">
+        <v>8.300751</v>
+      </c>
+      <c r="I15">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J15">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.697343333333333</v>
+      </c>
+      <c r="N15">
+        <v>5.09203</v>
+      </c>
+      <c r="O15">
+        <v>0.9588116379313592</v>
+      </c>
+      <c r="P15">
+        <v>0.9588116379313592</v>
+      </c>
+      <c r="Q15">
+        <v>4.696408123836667</v>
+      </c>
+      <c r="R15">
+        <v>42.26767311453001</v>
+      </c>
+      <c r="S15">
+        <v>0.2990450361658019</v>
+      </c>
+      <c r="T15">
+        <v>0.2990450361658019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.766917</v>
+      </c>
+      <c r="H16">
+        <v>8.300751</v>
+      </c>
+      <c r="I16">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J16">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.003827666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.011483</v>
+      </c>
+      <c r="O16">
+        <v>0.002162209185406566</v>
+      </c>
+      <c r="P16">
+        <v>0.002162209185406566</v>
+      </c>
+      <c r="Q16">
+        <v>0.01059083597033333</v>
+      </c>
+      <c r="R16">
+        <v>0.095317523733</v>
+      </c>
+      <c r="S16">
+        <v>0.0006743742967523567</v>
+      </c>
+      <c r="T16">
+        <v>0.0006743742967523567</v>
       </c>
     </row>
   </sheetData>
